--- a/W1D2_ESERCIZIO DI PRATICA_V1.xlsx
+++ b/W1D2_ESERCIZIO DI PRATICA_V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\La guerra come risorsa politica\Epicode\Modulo 1\1_10-12_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D53DCE9-9CF0-4ABC-BEA8-F638B124D512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE57EDA-1941-4552-85AE-121466C750F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2083,11 +2083,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:C8" headerRowCount="0" headerRowDxfId="2" dataDxfId="0" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:C8" headerRowCount="0" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Giudizio-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2300,7 +2300,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -34149,7 +34149,7 @@
   <dimension ref="A1:Z993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -62027,7 +62027,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -62040,7 +62040,8 @@
     <col min="6" max="6" width="4.19921875" style="3" customWidth="1"/>
     <col min="7" max="8" width="17.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="24" width="8.69921875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="24" width="8.69921875" style="3" customWidth="1"/>
     <col min="25" max="16384" width="14.3984375" style="3"/>
   </cols>
   <sheetData>
@@ -62107,14 +62108,14 @@
         <v>499</v>
       </c>
       <c r="H2" s="3">
-        <f>COUNTIF(C:C,"Abbigliamento")</f>
+        <f>COUNTIF(C:C,G2)</f>
         <v>11</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>499</v>
       </c>
       <c r="J2" s="3">
-        <f>SUMIF(C:C,"Abbigliamento",D:D)</f>
+        <f>SUMIF(C:C,I2,D:D)</f>
         <v>611780</v>
       </c>
     </row>
@@ -62138,14 +62139,14 @@
         <v>558</v>
       </c>
       <c r="H3" s="3">
-        <f>COUNTIF(C:C,"Alimentari")</f>
+        <f t="shared" ref="H3:H5" si="0">COUNTIF(C:C,G3)</f>
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>558</v>
       </c>
       <c r="J3" s="3">
-        <f>SUMIF(C:C,"Alimentari",D:D)</f>
+        <f t="shared" ref="J3:J5" si="1">SUMIF(C:C,I3,D:D)</f>
         <v>30860</v>
       </c>
     </row>
@@ -62169,14 +62170,14 @@
         <v>506</v>
       </c>
       <c r="H4" s="3">
-        <f>COUNTIF(C:C,"Personale")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>506</v>
       </c>
       <c r="J4" s="3">
-        <f>SUMIF(C:C,"Personale",D:D)</f>
+        <f t="shared" si="1"/>
         <v>54000</v>
       </c>
     </row>
@@ -62200,14 +62201,14 @@
         <v>547</v>
       </c>
       <c r="H5" s="3">
-        <f>COUNTIF(C:C,"Hardware")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>547</v>
       </c>
       <c r="J5" s="3">
-        <f>SUMIF(C:C,"Hardware",D:D)</f>
+        <f t="shared" si="1"/>
         <v>6765600</v>
       </c>
     </row>
@@ -62277,14 +62278,14 @@
         <v>501</v>
       </c>
       <c r="H8" s="3">
-        <f>COUNTIF(B:B,"H&amp;B")</f>
+        <f>COUNTIF(B:B,G8)</f>
         <v>2</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>501</v>
       </c>
       <c r="J8" s="3">
-        <f>SUMIF(B:B,"H&amp;B",D:D)</f>
+        <f>SUMIF(B:B,I8,D:D)</f>
         <v>73450</v>
       </c>
     </row>
@@ -62308,14 +62309,14 @@
         <v>507</v>
       </c>
       <c r="H9" s="3">
-        <f>COUNTIF(B:B,"Allstate")</f>
+        <f t="shared" ref="H9:H14" si="2">COUNTIF(B:B,G9)</f>
         <v>1</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>507</v>
       </c>
       <c r="J9" s="3">
-        <f>SUMIF(B:B,"Allstate",D:D)</f>
+        <f t="shared" ref="J9:J14" si="3">SUMIF(B:B,I9,D:D)</f>
         <v>50800</v>
       </c>
     </row>
@@ -62339,14 +62340,14 @@
         <v>576</v>
       </c>
       <c r="H10" s="3">
-        <f>COUNTIF(B:B,"Canon Usa")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>576</v>
       </c>
       <c r="J10" s="3">
-        <f>SUMIF(B:B,"Canon Usa",D:D)</f>
+        <f t="shared" si="3"/>
         <v>98450</v>
       </c>
     </row>
@@ -62370,14 +62371,14 @@
         <v>511</v>
       </c>
       <c r="H11" s="3">
-        <f>COUNTIF(B:B,"America Online")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>511</v>
       </c>
       <c r="J11" s="3">
-        <f>SUMIF(B:B,"America Online",D:D)</f>
+        <f t="shared" si="3"/>
         <v>7950</v>
       </c>
     </row>
@@ -62401,14 +62402,14 @@
         <v>525</v>
       </c>
       <c r="H12" s="3">
-        <f>COUNTIF(B:B,"Biobottoms")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>525</v>
       </c>
       <c r="J12" s="3">
-        <f>SUMIF(B:B,"Biobottoms",D:D)</f>
+        <f t="shared" si="3"/>
         <v>283000</v>
       </c>
     </row>
@@ -62432,14 +62433,14 @@
         <v>528</v>
       </c>
       <c r="H13" s="3">
-        <f>COUNTIF(B:B,"Epcot Center")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>528</v>
       </c>
       <c r="J13" s="3">
-        <f>SUMIF(B:B,"Epcot Center",D:D)</f>
+        <f t="shared" si="3"/>
         <v>107700</v>
       </c>
     </row>
@@ -62463,15 +62464,15 @@
         <v>529</v>
       </c>
       <c r="H14" s="3">
-        <f>COUNTIF(B:B,"Biergarten")</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>529</v>
       </c>
       <c r="J14" s="3">
-        <f>SUMIF(B:B,"Biergaten",D:D)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>27270</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
